--- a/data/钢铁产业链/中游数据/螺纹钢/螺纹钢销量.xlsx
+++ b/data/钢铁产业链/中游数据/螺纹钢/螺纹钢销量.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Repository\Projects\ffa\data\钢铁产业链\中游数据\螺纹钢\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\data\钢铁产业链\中游数据\螺纹钢\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEFC556-59DB-4BFB-B468-2D70316B5191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA10242B-CF25-4C0B-876C-1A61282D0836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="277" windowWidth="38596" windowHeight="20146" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>howard</author>
+    <author>FUDIAN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{501B7CF6-6E3D-4CE5-92F0-7A24C901BE7F}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5466A333-1ECE-43F2-AFB3-305DE8E88246}">
       <text>
         <r>
           <rPr>
@@ -49,10 +49,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvOo0CXxW3eR4BznVHJNY48ZkC/3wbeHcqeqTcPimG3pYROO/Av9z4+pQAiI0UekfwG333uNwrKeEIQ0OkZGWcxy+id4M/fqfVZz1BMBB8NJBrWvm9ADuqH5sMtgsGoHj45gCWQU+t0tC/Kz7j0i9szerxdovqLrb3duNuiAgdbrqsbeJCMKDwl9KhNeIzqyVzeqedImyxWXdOPg79hPYFfJsIZvDUeTQwM1bEWSbuZ6XsLFJZ+UOhVm/aOAflGIUVM8o1u/l4cuIF+89Rn8g9s5hsbky77n47sUE+XPiDgPOPEw5SQqMKRClZSpBtKd/vVrUEcnuS7r4tucFOiLftCHwFwGzKiCtZ4rNEF/Ie2sbOICI8r/GSmC31tPkleAyndOqF/70dXz4i8BMUuM2idOb2NKLy4lJVs9iiSWtKRcv7E+gSxQrjBD07Yf8k2QN5+N/w1qe3TjzF8rOYG1DOsJVIVrGzmXMCZU+zx0FLnh9H+cqhu+gwCST4VQKijvmOBwUJpvmdiPBjQWVojEQ1pMTFxlu8cho4aKayNu3fl8WjUnQK2b297KDEPWaESm2B3zaZMDofOoUeUWUXgxs20lCTQXQCSCsdphiDejHOVhbvIHY+xcZEUD36mK+67XR1Za6QzT+07MKQYfGaC8KocACPjx4QhkhSTNDE9P/CNe12XMKyDlF6CTPPYhwZyyzYk0c2gh8d7SgpzPhdaf9JqUQP6Y3/rrvBIw8RHAOf/CcCdpOJhZzb5+N9eSgnokMZSIvdzS6Z2mnhR0bmDp+tikL6CVqajuRmluiTuUq9TliWZcCOUt9hgjEbqzofU4ZwbZNwK4z9t3If6RynFWHf/dp4VtFaP1d+o6OecD/KB+Kfp9QZEFgMpH+uN/Z1tbnH4GaKs19Q23LV+txp+4/u/YM7kM1R6rJjPhnTadiW//kg88/hj5/Wj0jT2W8kW46xmWkXAN3waFRBsb/k2siG4mHWPY7y4LV2KoZPvmq8Qr4o8EuwtyTRDBPxqzOINiUVcI1Bgd827HMN7CjF0k3P8qm9cEEqWyxBF1Yg2sADuKXqPaCr5Lk4/EHHowMNTxaa7NXwDotV6UV66gMOZuh9DNdV32q4NxIo2A/0RFIKPMHNWRCijB9AmNs+7QgRib5t7h9E6f6UoNL2yvbalkLC/yfHmJY911J4A4MpcZG7L+D+T5pr6RKewzcW34jG61jyrPXVNVXuL4gYzwyrpghSckbdpBU738GBlbnSiL0zCxNfNln8cqv66PaH7jmkvLJXE=</t>
+          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTssMa5+fEiCZh0fRmPAaxPyyghtjio/6IHRpGZL4U5nc20yzaPUF4phHioFQ5XlnWvDmueoEf4Opr900VFoWZ505onbskxSY7VQf/iJCfVk/e1GyfdP+hQB9RD28vzTKNxhcdA2LYysSUy07/I0XfWOkSri+72gXT8KBts7ZTegFKbG6zTZnprcwMUSJRyw5fAae4nbKSjiqs1zB/mk+uOEQHsZ29oB+6o/fEYTv5GjGexPQzySVyUIid5UT+iTeCXJo27k7SygNKvG/uJGzpC//xO/IM3mxvNBp+pcQHpoy72w1vwqDB54drsVHfRAAEcbLJmMT8Gy6N3rodg+6OVcNZkju8LALW4xJHxztiIGkEJAwhZ9Dl+2cp2vQdoC5sA3FWfnJmX4bSLK4fxPLDc1ZXzt4U8gp/zhbALf5Zw5nSsxSQxRVj6V8l3ui0rfBSIKDCuWoVS2aEzOKyMsgcnTw2pmIZP900k3ct3pJPLKsjxVBdJU90QPZxr4h5dm7gBbxPdUCfKbCKks4KUZFisoFVYPxzyH9utTzVZ56wBWl0f7AhAACBZftRH4XKSp2z2JONG/RxtNFTkZdlPhZdLgzRL2eyKpMQfnF+UXOpD7YdSy5y5+rHwQ+7PYlFQyPgTScvwlPVsyaZWZAgfgbVmzmtWFy3zxw9sYpGOappNSL/ekEIw6OLGV6NzuKR340acDJ3pkOQQ1PphDNYqz4KOJovPm3lGs8e3AnmAqO2HLJSzSWeSabe9GFBQwsgWTMykJBl8LS/VE/YKFIu7/MQPQJdm1okPQ7h4sUMtRVx7tM8LCbwrtxYKKX5czHfCRDAvmFz2DGxiPxfWJ/ZfNseSA7pKulShmdYvA4hMWQtn+iuYMR6ynnwrp/Kya2A9ZvtJ8l5UPsVzjzYUsxzhPioibS4fba7pYGC0hfZunTvlP/zzWJODuFVl85lIDzMTKHiEM+ddPwHOYXHk6D9l89AHZOf6Epq6CotA4blNs92VlhWqLPCz9qrvNTeB79qTOZVzscjTTtssIBIgTyC/Y8EKmdNzTgWYHrCbdjUovlPksy7VTU996MHtKS5clvjaPUrgypSkB3QREzZKXSOAhcjbnnWsya3pwuofx47HMvXRwUfkLBZ4C1DgHrWeScqBifnHtyNQgWsP/jTHqdKD6dzaj+5OUsXcyx9f9YLnLIH8kGJFAn7NzmEOxKhIKe4BtI9HOX4XC7LS2IrvsYf+tmwXM5EtiJgplEKQ2e6jFuli9dYLQkPmKFNMklRmCE8uVZCyXK8BF+LQJE6reKOGXS8WhGYlyXq7Or/eKoSxjdkoJUlOtR6R6XePXrhHL2VGtWwaN01o6GOtJxwtlQc5YSYHrJn18XolbgRjncGxo2bo0MK9CIGq4M796T/99vANRJemD92XecQFYT8brHQhUZTXVOqmrzDojmiHNf07zVSif0a+uX5t5E0AJr4my+T7rVh7Urasbtsqpoh5txRbBL7S2wOUeTgrE45yRgDtgNE29WO90bwHKW1XW1tYEhCLtHSoVJvBHhTKpDnDVELNvQL+FU8GzWRyIVy1RCe5ViFph1v90Hr4VXYj+fWxVaqyuzxEyqcIdEHcU6lTAvcIxMg6t3NxFSbDILwQZxdq8y32lXClPDgWyaDvQILTPyhGsbRbp3bGPG+EtUODGe2sfPJqXYyiQisNlAYWfAURO+eE4w==</t>
         </r>
       </text>
     </comment>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>指标名称</t>
   </si>
@@ -113,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -141,14 +140,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -171,6 +162,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -244,16 +242,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -756,29 +754,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
       <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2010-3-29","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -801,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -824,7 +822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -847,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -870,7 +868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>40268</v>
       </c>
@@ -893,7 +891,7 @@
         <v>10.8729</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>40329</v>
       </c>
@@ -916,7 +914,7 @@
         <v>22.5806</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>40359</v>
       </c>
@@ -939,7 +937,7 @@
         <v>33.160499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>40390</v>
       </c>
@@ -962,7 +960,7 @@
         <v>38.546999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>40421</v>
       </c>
@@ -985,7 +983,7 @@
         <v>44.013300000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>40451</v>
       </c>
@@ -1008,7 +1006,7 @@
         <v>54.423000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>40482</v>
       </c>
@@ -1031,7 +1029,7 @@
         <v>62.514299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>40512</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>63.035499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>40543</v>
       </c>
@@ -1077,7 +1075,7 @@
         <v>64.397999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>40602</v>
       </c>
@@ -1100,7 +1098,7 @@
         <v>12.5448</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>40633</v>
       </c>
@@ -1123,7 +1121,7 @@
         <v>22.4634</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>40663</v>
       </c>
@@ -1146,7 +1144,7 @@
         <v>27.3187</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>40694</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>31.719200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>40724</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>34.2515</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>40755</v>
       </c>
@@ -1215,7 +1213,7 @@
         <v>36.237400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>40786</v>
       </c>
@@ -1238,7 +1236,7 @@
         <v>41.909300000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>40816</v>
       </c>
@@ -1261,7 +1259,7 @@
         <v>45.485500000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>40847</v>
       </c>
@@ -1284,7 +1282,7 @@
         <v>48.720100000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>40877</v>
       </c>
@@ -1307,7 +1305,7 @@
         <v>51.127299999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>40908</v>
       </c>
@@ -1330,7 +1328,7 @@
         <v>53.955199999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>40968</v>
       </c>
@@ -1353,7 +1351,7 @@
         <v>15.5289</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>40999</v>
       </c>
@@ -1376,7 +1374,7 @@
         <v>24.370799999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>41029</v>
       </c>
@@ -1399,7 +1397,7 @@
         <v>43.2119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>41060</v>
       </c>
@@ -1422,7 +1420,7 @@
         <v>58.004800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>41090</v>
       </c>
@@ -1445,7 +1443,7 @@
         <v>74.242800000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>41121</v>
       </c>
@@ -1468,7 +1466,7 @@
         <v>89.110200000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>41152</v>
       </c>
@@ -1491,7 +1489,7 @@
         <v>103.6763</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>41182</v>
       </c>
@@ -1514,7 +1512,7 @@
         <v>129.0427</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>41213</v>
       </c>
@@ -1537,7 +1535,7 @@
         <v>156.0111</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>41243</v>
       </c>
@@ -1560,7 +1558,7 @@
         <v>171.52209999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>41274</v>
       </c>
@@ -1583,7 +1581,7 @@
         <v>188.2259</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>41333</v>
       </c>
@@ -1606,7 +1604,7 @@
         <v>45.385599999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>41364</v>
       </c>
@@ -1629,7 +1627,7 @@
         <v>64.927999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>41394</v>
       </c>
@@ -1652,7 +1650,7 @@
         <v>80.739699999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>41425</v>
       </c>
@@ -1675,7 +1673,7 @@
         <v>93.127700000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>41455</v>
       </c>
@@ -1698,7 +1696,7 @@
         <v>103.91549999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41486</v>
       </c>
@@ -1721,7 +1719,7 @@
         <v>127.0954</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41517</v>
       </c>
@@ -1744,7 +1742,7 @@
         <v>151.47890000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>41547</v>
       </c>
@@ -1767,7 +1765,7 @@
         <v>172.1301</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>41578</v>
       </c>
@@ -1790,7 +1788,7 @@
         <v>204.9342</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>41608</v>
       </c>
@@ -1813,7 +1811,7 @@
         <v>226.4751</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>41639</v>
       </c>
@@ -1836,7 +1834,7 @@
         <v>246.15350000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>41670</v>
       </c>
@@ -1859,7 +1857,7 @@
         <v>14.0365</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>41729</v>
       </c>
@@ -1882,7 +1880,7 @@
         <v>56.754399999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>41759</v>
       </c>
@@ -1905,7 +1903,7 @@
         <v>78.354900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>41790</v>
       </c>
@@ -1928,7 +1926,7 @@
         <v>101.68859999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>41820</v>
       </c>
@@ -1951,7 +1949,7 @@
         <v>131.42910000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>41851</v>
       </c>
@@ -1974,7 +1972,7 @@
         <v>157.73169999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>41882</v>
       </c>
@@ -1997,7 +1995,7 @@
         <v>185.81960000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>41912</v>
       </c>
@@ -2020,7 +2018,7 @@
         <v>214.5547</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>41943</v>
       </c>
@@ -2043,7 +2041,7 @@
         <v>247.01750000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>41973</v>
       </c>
@@ -2066,7 +2064,7 @@
         <v>276.6934</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>42004</v>
       </c>
@@ -2089,7 +2087,7 @@
         <v>306.44940000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>42035</v>
       </c>
@@ -2112,7 +2110,7 @@
         <v>30.523399999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>42063</v>
       </c>
@@ -2135,7 +2133,7 @@
         <v>57.027299999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>42094</v>
       </c>
@@ -2158,7 +2156,7 @@
         <v>95.456199999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>42124</v>
       </c>
@@ -2181,7 +2179,7 @@
         <v>136.89060000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>42155</v>
       </c>
@@ -2204,7 +2202,7 @@
         <v>171.4785</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>42185</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>212.04220000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>42216</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>274.72230000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>42247</v>
       </c>
@@ -2273,7 +2271,7 @@
         <v>335.5249</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>42277</v>
       </c>
@@ -2296,7 +2294,7 @@
         <v>386.50310000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>42308</v>
       </c>
@@ -2319,7 +2317,7 @@
         <v>439.1189</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>42338</v>
       </c>
@@ -2342,7 +2340,7 @@
         <v>495.38760000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>42369</v>
       </c>
@@ -2365,7 +2363,7 @@
         <v>559.17790000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>42400</v>
       </c>
@@ -2388,7 +2386,7 @@
         <v>63.4649</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>42429</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>112.8019</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>42460</v>
       </c>
@@ -2434,7 +2432,7 @@
         <v>149.6559</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>42490</v>
       </c>
@@ -2457,7 +2455,7 @@
         <v>201.61959999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>42521</v>
       </c>
@@ -2480,7 +2478,7 @@
         <v>243.63200000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>42551</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>300.8159</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>42582</v>
       </c>
@@ -2526,7 +2524,7 @@
         <v>344.4794</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>42613</v>
       </c>
@@ -2549,7 +2547,7 @@
         <v>383.84160000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>42643</v>
       </c>
@@ -2572,7 +2570,7 @@
         <v>425.29020000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>42674</v>
       </c>
@@ -2595,7 +2593,7 @@
         <v>459.11419999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>42704</v>
       </c>
@@ -2618,7 +2616,7 @@
         <v>495.96100000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>42735</v>
       </c>
@@ -2641,7 +2639,7 @@
         <v>527.30859999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>42766</v>
       </c>
@@ -2664,7 +2662,7 @@
         <v>34.877699999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>42794</v>
       </c>
@@ -2687,7 +2685,7 @@
         <v>73.420500000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>42825</v>
       </c>
@@ -2710,7 +2708,7 @@
         <v>103.3373</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>42855</v>
       </c>
@@ -2733,7 +2731,7 @@
         <v>126.1781</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>42886</v>
       </c>
@@ -2756,7 +2754,7 @@
         <v>143.2764</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>42916</v>
       </c>
@@ -2779,7 +2777,7 @@
         <v>163.06620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <v>42947</v>
       </c>
@@ -2802,7 +2800,7 @@
         <v>185.6592</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>42978</v>
       </c>
@@ -2825,7 +2823,7 @@
         <v>206.5034</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>43008</v>
       </c>
@@ -2848,7 +2846,7 @@
         <v>226.66050000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>43039</v>
       </c>
@@ -2871,7 +2869,7 @@
         <v>253.3716</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>43069</v>
       </c>
@@ -2894,7 +2892,7 @@
         <v>271.35309999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>43100</v>
       </c>
@@ -2917,7 +2915,7 @@
         <v>290.16460000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>43131</v>
       </c>
@@ -2940,7 +2938,7 @@
         <v>5.6463999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>43159</v>
       </c>
@@ -2963,7 +2961,7 @@
         <v>28.0962</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>43190</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>41.982599999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>43220</v>
       </c>
@@ -3009,7 +3007,7 @@
         <v>71.609899999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>43251</v>
       </c>
@@ -3032,7 +3030,7 @@
         <v>90.220500000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <v>43281</v>
       </c>
@@ -3055,7 +3053,7 @@
         <v>112.97324999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <v>43312</v>
       </c>
@@ -3078,7 +3076,7 @@
         <v>125.2004</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <v>43343</v>
       </c>
@@ -3101,7 +3099,7 @@
         <v>142.3006</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>43373</v>
       </c>
@@ -3124,7 +3122,7 @@
         <v>157.39940000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>43404</v>
       </c>
@@ -3147,7 +3145,7 @@
         <v>165.2441</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>43434</v>
       </c>
@@ -3170,7 +3168,7 @@
         <v>171.9083</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>43465</v>
       </c>
@@ -3193,7 +3191,7 @@
         <v>181.17230000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>43496</v>
       </c>
@@ -3216,7 +3214,7 @@
         <v>17.943300000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>43524</v>
       </c>
@@ -3239,7 +3237,7 @@
         <v>41.906100000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>43555</v>
       </c>
@@ -3262,7 +3260,7 @@
         <v>59.488</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>43585</v>
       </c>
@@ -3285,7 +3283,7 @@
         <v>72.807599999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>43616</v>
       </c>
@@ -3308,7 +3306,7 @@
         <v>82.446399999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>43646</v>
       </c>
@@ -3331,7 +3329,7 @@
         <v>88.403700000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
         <v>43677</v>
       </c>
@@ -3354,7 +3352,7 @@
         <v>101.06229999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
         <v>43708</v>
       </c>
@@ -3377,7 +3375,7 @@
         <v>113.61150000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>43738</v>
       </c>
@@ -3400,7 +3398,7 @@
         <v>127.51860000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>43769</v>
       </c>
@@ -3423,7 +3421,7 @@
         <v>138.57249999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>43799</v>
       </c>
@@ -3446,7 +3444,7 @@
         <v>144.24799999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
         <v>43830</v>
       </c>
@@ -3469,7 +3467,7 @@
         <v>148.67230000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>43861</v>
       </c>
@@ -3492,7 +3490,7 @@
         <v>6.4534000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="5">
         <v>43890</v>
       </c>
@@ -3515,7 +3513,7 @@
         <v>19.4237</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="5">
         <v>43951</v>
       </c>
@@ -3538,7 +3536,7 @@
         <v>57.235799999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
         <v>43982</v>
       </c>
@@ -3561,7 +3559,7 @@
         <v>67.906599999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="5">
         <v>44012</v>
       </c>
@@ -3584,7 +3582,7 @@
         <v>74.784546000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="5">
         <v>44043</v>
       </c>
@@ -3607,7 +3605,7 @@
         <v>79.804856000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="5">
         <v>44074</v>
       </c>
@@ -3630,7 +3628,7 @@
         <v>86.734899999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="5">
         <v>44104</v>
       </c>
@@ -3653,7 +3651,7 @@
         <v>92.305627000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5">
         <v>44135</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>100.97164600000001</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="5">
         <v>44165</v>
       </c>
@@ -3699,7 +3697,7 @@
         <v>102.928256</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
         <v>44196</v>
       </c>
@@ -3722,7 +3720,7 @@
         <v>110.89520899999999</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="5">
         <v>44227</v>
       </c>
@@ -3745,7 +3743,7 @@
         <v>13.873894</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="5">
         <v>44255</v>
       </c>
@@ -3768,7 +3766,7 @@
         <v>40.700549000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="5">
         <v>44286</v>
       </c>
@@ -3791,7 +3789,7 @@
         <v>66.904075000000006</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
         <v>44316</v>
       </c>
@@ -3814,7 +3812,7 @@
         <v>69.528914999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="5">
         <v>44347</v>
       </c>
@@ -3837,7 +3835,7 @@
         <v>69.839314999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="5">
         <v>44377</v>
       </c>
@@ -3860,7 +3858,7 @@
         <v>72.388092999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="5">
         <v>44408</v>
       </c>
@@ -3883,7 +3881,7 @@
         <v>75.876170999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="5">
         <v>44439</v>
       </c>
@@ -3906,7 +3904,7 @@
         <v>77.903599999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="5">
         <v>44469</v>
       </c>
@@ -3929,7 +3927,7 @@
         <v>79.929500000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
         <v>44500</v>
       </c>
@@ -3952,7 +3950,7 @@
         <v>80.981200000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="5">
         <v>44530</v>
       </c>
@@ -3975,7 +3973,7 @@
         <v>81.310400000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="5">
         <v>44561</v>
       </c>
@@ -3998,7 +3996,7 @@
         <v>82.607200000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="5">
         <v>44592</v>
       </c>
@@ -4021,7 +4019,7 @@
         <v>0.57010000000000005</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="5">
         <v>44620</v>
       </c>
@@ -4044,7 +4042,7 @@
         <v>9.3268000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="5">
         <v>44651</v>
       </c>
@@ -4067,7 +4065,7 @@
         <v>13.7963</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>44681</v>
       </c>
@@ -4090,7 +4088,7 @@
         <v>24.467400000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="5">
         <v>44712</v>
       </c>
@@ -4113,7 +4111,7 @@
         <v>25.964099999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
         <v>44742</v>
       </c>
@@ -4136,7 +4134,7 @@
         <v>31.2484</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="5">
         <v>44773</v>
       </c>
@@ -4159,7 +4157,7 @@
         <v>31.534800000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>44804</v>
       </c>
@@ -4182,7 +4180,7 @@
         <v>35.088000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="5">
         <v>44834</v>
       </c>
@@ -4205,7 +4203,7 @@
         <v>39.245800000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="5">
         <v>44865</v>
       </c>
@@ -4228,7 +4226,7 @@
         <v>45.762999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="5">
         <v>44895</v>
       </c>
@@ -4251,7 +4249,7 @@
         <v>49.384799999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="5">
         <v>44926</v>
       </c>
@@ -4274,7 +4272,7 @@
         <v>55.207599999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="5">
         <v>44957</v>
       </c>
@@ -4297,7 +4295,7 @@
         <v>5.5298999999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="5">
         <v>44985</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>11.0776</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="5">
         <v>45016</v>
       </c>
@@ -4343,7 +4341,7 @@
         <v>20.2454</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="5">
         <v>45046</v>
       </c>
@@ -4366,7 +4364,7 @@
         <v>28.6751</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="5">
         <v>45077</v>
       </c>
@@ -4389,7 +4387,7 @@
         <v>34.384399999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="5">
         <v>45107</v>
       </c>
@@ -4412,7 +4410,7 @@
         <v>41.057699999999997</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="5">
         <v>45138</v>
       </c>
@@ -4435,7 +4433,7 @@
         <v>51.474699999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="5">
         <v>45169</v>
       </c>
@@ -4458,13 +4456,41 @@
         <v>60.314399999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="5">
+        <v>45199</v>
+      </c>
+      <c r="B162" s="6">
+        <v>37932690</v>
+      </c>
+      <c r="C162" s="6">
+        <v>6518.9263000000001</v>
+      </c>
+      <c r="D162" s="6">
+        <v>126150104</v>
+      </c>
+      <c r="E162" s="6">
+        <v>6209884</v>
+      </c>
+      <c r="F162" s="6">
+        <v>1614.4158</v>
+      </c>
+      <c r="G162" s="6">
+        <v>67.410700000000006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
